--- a/src/main/resources/poi/report_warehouse_pickingSummary.xlsx
+++ b/src/main/resources/poi/report_warehouse_pickingSummary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F97C7-03CB-4BCF-9C3F-20BA0237B55E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44834CD-F288-4092-B478-3FFBF19E08CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="6048" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,14 +195,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,7 +515,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,29 +528,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -579,28 +579,28 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="5" t="s">

--- a/src/main/resources/poi/report_warehouse_pickingSummary.xlsx
+++ b/src/main/resources/poi/report_warehouse_pickingSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44834CD-F288-4092-B478-3FFBF19E08CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D31353-C2D1-469A-A8D7-8DC0E8B413EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="2508" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true" CodeFile="ExportGridView.aspx.cs" Inherits="ExportGridView" %&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{fe: list t.typeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.statusName}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,7 +87,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t.differeCount</t>
+    <t>{{fe: list t.deptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.productSerialNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.productName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.productSpecification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.productUnitUomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.amount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +531,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,13 +561,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -572,27 +588,27 @@
         <v>4</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
@@ -607,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
